--- a/dataexcel/uploads/format_input_borang_excel_awal_3.xlsx
+++ b/dataexcel/uploads/format_input_borang_excel_awal_3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="104">
   <si>
     <t>1.1.a</t>
   </si>
@@ -333,6 +333,9 @@
   </si>
   <si>
     <t>Updated At</t>
+  </si>
+  <si>
+    <t>coba dulu coy</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-13809]dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-13809]dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -409,13 +412,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -737,7 +740,9 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
@@ -757,7 +762,9 @@
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -777,7 +784,9 @@
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
@@ -797,7 +806,9 @@
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
@@ -817,7 +828,9 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
@@ -837,7 +850,9 @@
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
@@ -857,7 +872,9 @@
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
@@ -877,7 +894,9 @@
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
@@ -897,7 +916,9 @@
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
@@ -917,7 +938,9 @@
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
@@ -937,7 +960,9 @@
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D12" s="2">
         <v>1</v>
       </c>
@@ -957,7 +982,9 @@
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
@@ -977,7 +1004,9 @@
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
@@ -997,7 +1026,9 @@
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
@@ -1017,7 +1048,9 @@
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D16" s="2">
         <v>1</v>
       </c>
@@ -1037,7 +1070,9 @@
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
@@ -1057,7 +1092,9 @@
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D18" s="2">
         <v>1</v>
       </c>
@@ -1077,7 +1114,9 @@
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D19" s="2">
         <v>1</v>
       </c>
@@ -1097,7 +1136,9 @@
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D20" s="2">
         <v>1</v>
       </c>
@@ -1117,7 +1158,9 @@
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D21" s="2">
         <v>1</v>
       </c>
@@ -1137,7 +1180,9 @@
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
@@ -1157,7 +1202,9 @@
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
@@ -1177,7 +1224,9 @@
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
@@ -1197,7 +1246,9 @@
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D25" s="2">
         <v>1</v>
       </c>
@@ -1217,7 +1268,9 @@
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
@@ -1237,7 +1290,9 @@
       <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D27" s="2">
         <v>1</v>
       </c>
@@ -1257,7 +1312,9 @@
       <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D28" s="2">
         <v>1</v>
       </c>
@@ -1277,7 +1334,9 @@
       <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D29" s="2">
         <v>1</v>
       </c>
@@ -1297,7 +1356,9 @@
       <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
@@ -1317,7 +1378,9 @@
       <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
@@ -1337,7 +1400,9 @@
       <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D32" s="2">
         <v>1</v>
       </c>
@@ -1357,7 +1422,9 @@
       <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D33" s="2">
         <v>1</v>
       </c>
@@ -1377,7 +1444,9 @@
       <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D34" s="2">
         <v>1</v>
       </c>
@@ -1397,7 +1466,9 @@
       <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
@@ -1417,7 +1488,9 @@
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
@@ -1437,7 +1510,9 @@
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
@@ -1457,7 +1532,9 @@
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
@@ -1477,7 +1554,9 @@
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D39" s="2">
         <v>1</v>
       </c>
@@ -1497,7 +1576,9 @@
       <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D40" s="2">
         <v>1</v>
       </c>
@@ -1517,7 +1598,9 @@
       <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D41" s="2">
         <v>1</v>
       </c>
@@ -1537,7 +1620,9 @@
       <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D42" s="2">
         <v>1</v>
       </c>
@@ -1557,7 +1642,9 @@
       <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D43" s="2">
         <v>1</v>
       </c>
@@ -1577,7 +1664,9 @@
       <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D44" s="2">
         <v>1</v>
       </c>
@@ -1597,7 +1686,9 @@
       <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D45" s="2">
         <v>1</v>
       </c>
@@ -1617,7 +1708,9 @@
       <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D46" s="2">
         <v>1</v>
       </c>
@@ -1637,7 +1730,9 @@
       <c r="B47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D47" s="2">
         <v>1</v>
       </c>
@@ -1657,7 +1752,9 @@
       <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D48" s="2">
         <v>1</v>
       </c>
@@ -1677,7 +1774,9 @@
       <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D49" s="2">
         <v>1</v>
       </c>
@@ -1697,7 +1796,9 @@
       <c r="B50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D50" s="2">
         <v>1</v>
       </c>
@@ -1717,7 +1818,9 @@
       <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D51" s="2">
         <v>1</v>
       </c>
@@ -1737,7 +1840,9 @@
       <c r="B52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D52" s="2">
         <v>1</v>
       </c>
@@ -1757,7 +1862,9 @@
       <c r="B53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D53" s="2">
         <v>1</v>
       </c>
@@ -1777,7 +1884,9 @@
       <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D54" s="2">
         <v>1</v>
       </c>
@@ -1797,7 +1906,9 @@
       <c r="B55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D55" s="2">
         <v>1</v>
       </c>
@@ -1817,7 +1928,9 @@
       <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D56" s="2">
         <v>1</v>
       </c>
@@ -1837,7 +1950,9 @@
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D57" s="2">
         <v>1</v>
       </c>
@@ -1857,7 +1972,9 @@
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D58" s="2">
         <v>1</v>
       </c>
@@ -1877,7 +1994,9 @@
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D59" s="2">
         <v>1</v>
       </c>
@@ -1897,7 +2016,9 @@
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D60" s="2">
         <v>1</v>
       </c>
@@ -1917,7 +2038,9 @@
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D61" s="2">
         <v>1</v>
       </c>
@@ -1937,7 +2060,9 @@
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D62" s="2">
         <v>1</v>
       </c>
@@ -1957,7 +2082,9 @@
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D63" s="2">
         <v>1</v>
       </c>
@@ -1977,7 +2104,9 @@
       <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D64" s="2">
         <v>1</v>
       </c>
@@ -1997,7 +2126,9 @@
       <c r="B65" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D65" s="2">
         <v>1</v>
       </c>
@@ -2017,7 +2148,9 @@
       <c r="B66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D66" s="2">
         <v>1</v>
       </c>
@@ -2037,7 +2170,9 @@
       <c r="B67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D67" s="2">
         <v>1</v>
       </c>
@@ -2057,7 +2192,9 @@
       <c r="B68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D68" s="2">
         <v>1</v>
       </c>
@@ -2077,7 +2214,9 @@
       <c r="B69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D69" s="2">
         <v>1</v>
       </c>
@@ -2097,7 +2236,9 @@
       <c r="B70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D70" s="2">
         <v>1</v>
       </c>
@@ -2117,7 +2258,9 @@
       <c r="B71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D71" s="2">
         <v>1</v>
       </c>
@@ -2137,7 +2280,9 @@
       <c r="B72" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D72" s="2">
         <v>1</v>
       </c>
@@ -2157,7 +2302,9 @@
       <c r="B73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D73" s="2">
         <v>1</v>
       </c>
@@ -2177,7 +2324,9 @@
       <c r="B74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D74" s="2">
         <v>1</v>
       </c>
@@ -2197,7 +2346,9 @@
       <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D75" s="2">
         <v>1</v>
       </c>
@@ -2217,7 +2368,9 @@
       <c r="B76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D76" s="2">
         <v>1</v>
       </c>
@@ -2237,7 +2390,9 @@
       <c r="B77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D77" s="2">
         <v>1</v>
       </c>
@@ -2257,7 +2412,9 @@
       <c r="B78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D78" s="2">
         <v>1</v>
       </c>
@@ -2277,7 +2434,9 @@
       <c r="B79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D79" s="2">
         <v>1</v>
       </c>
@@ -2297,7 +2456,9 @@
       <c r="B80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D80" s="2">
         <v>1</v>
       </c>
@@ -2317,7 +2478,9 @@
       <c r="B81" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D81" s="2">
         <v>1</v>
       </c>
@@ -2337,7 +2500,9 @@
       <c r="B82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D82" s="2">
         <v>1</v>
       </c>
@@ -2357,7 +2522,9 @@
       <c r="B83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D83" s="2">
         <v>1</v>
       </c>
@@ -2377,7 +2544,9 @@
       <c r="B84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D84" s="2">
         <v>1</v>
       </c>
@@ -2397,7 +2566,9 @@
       <c r="B85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D85" s="2">
         <v>1</v>
       </c>
@@ -2417,7 +2588,9 @@
       <c r="B86" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D86" s="2">
         <v>1</v>
       </c>
@@ -2437,7 +2610,9 @@
       <c r="B87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D87" s="2">
         <v>1</v>
       </c>
@@ -2457,7 +2632,9 @@
       <c r="B88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D88" s="2">
         <v>1</v>
       </c>
@@ -2477,7 +2654,9 @@
       <c r="B89" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D89" s="2">
         <v>1</v>
       </c>
@@ -2497,7 +2676,9 @@
       <c r="B90" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D90" s="2">
         <v>1</v>
       </c>
@@ -2517,7 +2698,9 @@
       <c r="B91" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D91" s="2">
         <v>1</v>
       </c>
@@ -2537,7 +2720,9 @@
       <c r="B92" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="3"/>
+      <c r="C92" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D92" s="2">
         <v>1</v>
       </c>
@@ -2557,7 +2742,9 @@
       <c r="B93" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D93" s="2">
         <v>1</v>
       </c>
@@ -2577,7 +2764,9 @@
       <c r="B94" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D94" s="2">
         <v>1</v>
       </c>
@@ -2597,7 +2786,9 @@
       <c r="B95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D95" s="2">
         <v>1</v>
       </c>
@@ -2617,7 +2808,9 @@
       <c r="B96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D96" s="2">
         <v>1</v>
       </c>
@@ -2637,7 +2830,9 @@
       <c r="B97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D97" s="2">
         <v>1</v>
       </c>
@@ -2657,7 +2852,9 @@
       <c r="B98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D98" s="2">
         <v>1</v>
       </c>
@@ -2677,7 +2874,9 @@
       <c r="B99" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D99" s="2">
         <v>1</v>
       </c>
